--- a/biology/Médecine/Joseph_Pojariskiy/Joseph_Pojariskiy.xlsx
+++ b/biology/Médecine/Joseph_Pojariskiy/Joseph_Pojariskiy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Fomitch Pojariskiy (russe : Иосиф Фомич Пожариский), né en 1875 à Kharkov et mort en 1919, est un pathologiste russe. Il est docteur en médecine (1904) et professeur (1910).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Fomitch Pojariskiy est né en 1875 à Kharkov. Il obtient la médaille d'or au lycée. En 1901, il est diplômé de la faculté de médecine de l'université de Kharkov. Il travailla là-bas à la chaire d'anatomie pathologique sous la direction de Vladimir Kyrlov (ru), puis Nikolaï Melnikov-Razvedenkov (ru). 
 Au cours de ses années de travail J. F. Pojariskiy a publié près de quarante travaux scientifiques, comprenant trois monographies et le manuel Notions de base d'anatomie pathologique en trois volumes. Les première et deuxième parties du manuel ont été rééditées en 1914, 1918 et 1923. 
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De la formation hétéroplastique du tissu osseux, Kharkov, 1904.
 Des tâches de l'anatomie pathologique, 1910.
